--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_18.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_18.xlsx
@@ -483,72 +483,76 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>isophonics_232</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_146</t>
+          <t>isophonics_261</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1988636363636364</v>
+        <v>0.1770833333333333</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['E:min/G', 'B:maj/F#', 'E:min/G']]</t>
+          <t>[['C', 'F', 'C']]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:min/4', 'A', 'D:min']]</t>
+          <t>[['G/3', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(87.26, 89.58)]</t>
+          <t>[(16.17907, 21.844739)]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(31.785035, 36.15069)]</t>
+          <t>[(13.079206, 17.500916)]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_185</t>
+          <t>schubert-winterreise_123</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_150</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1860902255639098</v>
+        <v>0.2701149425287356</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['B:min', 'E', 'A']]</t>
+          <t>[['F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F']]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:min', 'D', 'G']]</t>
+          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(48.617346, 59.937074)]</t>
+          <t>[(21.9, 51.5)]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(22.829118, 26.567531)]</t>
+          <t>[(10.82, 26.2)]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -557,117 +561,113 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>schubert-winterreise_101</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(10.56, 69.42)]</t>
+          <t>[(4.7, 21.62)]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(10.94, 65.78)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[(165.14, 168.7)]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_60</t>
+          <t>isophonics_160</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_232</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1152482269503546</v>
+        <v>0.1169415292353823</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G']]</t>
+          <t>[['Eb:7', 'Ab:maj', 'Eb/3'], ['Eb:maj', 'Bb:7/3', 'Eb:maj'], ['Eb:7', 'Ab:maj', 'Ab/7']]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F', 'G', 'A']]</t>
+          <t>[['D:7', 'G:maj', 'D:maj'], ['D:maj/A', 'A:7', 'D:maj'], ['D:7', 'G:maj', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(0.98079, 5.421882)]</t>
+          <t>[(26.006, 29.321), (42.588, 46.723), (54.072, 59.053)]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(25.606371, 34.801473)]</t>
+          <t>[(42.62, 45.06), (8.7, 10.94), (18.3, 20.68)]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>jaah_43</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>isophonics_235</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2708333333333333</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#'], ['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['Eb', 'Eb:7', 'Ab']]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj'], ['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['Bb', 'Bb:7', 'Eb']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(66.52, 70.14), (8.24, 13.46)]</t>
+          <t>[(45.01, 49.44)]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(58.08, 65.66), (87.66, 96.72)]</t>
+          <t>[(48.170328, 55.589104)]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -676,35 +676,35 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>isophonics_208</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.2626728110599078</v>
+        <v>0.2371794871794872</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['E', 'B', 'E', 'B']]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['Eb:maj', 'Bb:maj', 'Eb:maj', 'Bb:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(62.2, 64.4)]</t>
+          <t>[(148.857891, 156.114126)]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(39.724104, 43.706326)]</t>
+          <t>[(217.911, 223.713)]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -713,35 +713,35 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
+          <t>isophonics_109</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1185701830863121</v>
+        <v>0.5576923076923077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'A']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G', 'D']]</t>
+          <t>[['A/3', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(37.738798, 43.706326)]</t>
+          <t>[(94.925, 100.821)]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(142.379117, 149.240614)]</t>
+          <t>[(4.25, 9.179)]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -750,76 +750,72 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_95</t>
+          <t>isophonics_81</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1229096989966555</v>
+        <v>0.1940639269406393</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D', 'E', 'E']]</t>
+          <t>[['E/5', 'B', 'B', 'E/5']]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['Bb', 'C', 'C/7']]</t>
+          <t>[['Db', 'Ab', 'Ab', 'Db']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(5.346961, 13.218526)]</t>
+          <t>[(61.620521, 70.444104)]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(51.6, 55.527)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
-        </is>
-      </c>
+          <t>[(126.19, 129.59)]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_125</t>
+          <t>isophonics_273</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.05760869565217391</v>
+        <v>0.1031468531468532</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:7/C', 'C', 'C/G']]</t>
+          <t>[['A/3', 'E/5', 'A/3']]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:7/3', 'G/3', 'G']]</t>
+          <t>[['C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(239.74, 243.98)]</t>
+          <t>[(14.168, 18.573)]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(67.905, 72.107811)]</t>
+          <t>[(20.801, 27.165)]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -828,35 +824,35 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_13</t>
+          <t>schubert-winterreise_68</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.09834190966266437</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb:7', 'Ab:7', 'Ab:7'], ['Eb', 'Eb', 'Ab:7', 'Eb'], ['Bb:7', 'Eb', 'Eb', 'Eb']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C', 'C:7', 'F:7', 'F:7'], ['C', 'C', 'F:7', 'C'], ['G:7', 'C', 'C', 'C']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(20.11, 28.19), (9.15, 20.11), (36.12, 46.94)]</t>
+          <t>[(33.0, 48.22)]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(7.99, 13.02), (19.33, 24.39), (47.25, 51.41)]</t>
+          <t>[(14.44, 41.8)]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -865,154 +861,150 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>schubert-winterreise_13</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.3726708074534161</v>
+        <v>0.2767857142857143</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
+          <t>[['B:maj', 'F#:7', 'B:maj'], ['F#:7', 'B:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(63.84, 67.54)]</t>
+          <t>[(0.32, 9.54), (30.52, 40.64)]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(21.34, 24.96)]</t>
+          <t>[(65.44, 66.82), (66.04, 69.18)]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
+          <t>schubert-winterreise_123</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3231707317073171</v>
+        <v>0.2528735632183908</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D/5', 'E/4', 'A', 'A', 'D/5', 'A']]</t>
+          <t>[['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E', 'F#', 'B', 'B', 'E/5', 'B']]</t>
+          <t>[['F:min', 'C:7/F', 'F:min', 'C:maj/F', 'F:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(5.544, 11.273)]</t>
+          <t>[(11.74, 19.74)]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(52.727278, 64.604285)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[(18.82, 46.24)]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.1202898550724638</v>
+        <v>0.09642857142857142</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:7', 'C:min', 'C:min'], ['C', 'C/G', 'G:7', 'C']]</t>
+          <t>[['A#/F', 'F:7', 'A#']]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min'], ['F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(21.94, 27.52), (242.22, 246.98)]</t>
+          <t>[(271.22, 275.78)]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(3.82, 8.62), (21.02, 24.16)]</t>
+          <t>[(79.98, 87.7)]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>isophonics_128</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.1334681496461072</v>
+        <v>0.2932330827067669</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D/7', 'G/3', 'G:min/b3', 'D:maj']]</t>
+          <t>[['C', 'F', 'C']]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C/b7', 'F', 'F:min', 'C']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(62.778, 67.223)]</t>
+          <t>[(10.634761, 15.986961)]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(37.053, 43.202)]</t>
+          <t>[(62.2, 64.4)]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -1021,83 +1013,79 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_23</t>
+          <t>schubert-winterreise_108</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.07459239130434782</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb', 'F:7']]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E'], ['C:maj', 'A:min/E', 'E:7', 'A:min'], ['A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'F#:maj/A#', 'C#:7']]</t>
+          <t>[['C:min/G', 'G:7', 'C:min', 'C:min'], ['D#/G', 'C:min/G', 'G:7', 'C:min'], ['C:min', 'C:min/G', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(15.25, 22.53)]</t>
+          <t>[(32.7, 39.58), (30.76, 37.72), (36.02, 45.64)]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(19.2, 21.28)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[(25.8, 31.82), (67.16, 72.4), (24.68, 29.46)]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>isophonics_204</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>isophonics_203</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.1099450274862569</v>
+        <v>0.1045673076923077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:maj/A']]</t>
+          <t>[['D', 'A', 'A']]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb', 'Bb']]</t>
+          <t>[['G', 'D', 'D/b7']]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[(16.8, 20.08)]</t>
+          <t>[(0.459543, 6.438299)]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[(50.13, 55.78)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[(55.397573, 60.285374)]</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
     </row>
   </sheetData>

--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_18.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,154 +488,178 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_232</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1770833333333333</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C', 'F', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06153846153846154</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G/3', 'C', 'G']]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(16.17907, 21.844739)]</t>
+          <t>[['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(13.079206, 17.500916)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:01:27.680000', '0:01:38.020000'), ('0:00:43.180000', '0:00:45.100000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:30.240000', '0:00:38.500000'), ('0:01:24.620000', '0:01:31.740000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2701149425287356</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_193</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3071428571428572</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(21.9, 51.5)]</t>
+          <t>[['Gb:7', 'Cb', 'Gb:7', 'Cb']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(10.82, 26.2)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:16.560000', '0:00:37.820000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:45.522000', '0:00:50.551000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_101</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
-        </is>
+          <t>isophonics_12</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1375</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']]</t>
+          <t>[['D/5', 'A/3', 'D']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(4.7, 21.62)]</t>
+          <t>[['C:maj', 'G:maj', 'C:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(165.14, 168.7)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:21.740249', '0:00:26.767369')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:08.720000', '0:00:10.480000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1169415292353823</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab:maj', 'Eb/3'], ['Eb:maj', 'Bb:7/3', 'Eb:maj'], ['Eb:7', 'Ab:maj', 'Ab/7']]</t>
-        </is>
+          <t>isophonics_273</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1106719367588933</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:maj'], ['D:maj/A', 'A:7', 'D:maj'], ['D:7', 'G:maj', 'G:maj/B']]</t>
+          <t>[['C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(26.006, 29.321), (42.588, 46.723), (54.072, 59.053)]</t>
+          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(42.62, 45.06), (8.7, 10.94), (18.3, 20.68)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
+          <t>[('0:00:20.801000', '0:00:27.165000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:46.560000', '0:00:49.080000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -639,454 +668,484 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_43</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.119047619047619</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb:7', 'Ab']]</t>
-        </is>
+          <t>jaah_47</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>jaah_8</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.05398400473933649</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb:7', 'Eb']]</t>
+          <t>[['Db:maj6', 'Db:maj6', 'Db:maj6'], ['Ab:7', 'Db:maj6', 'Db:maj6'], ['Ab:7', 'Ab:7', 'Db:maj6'], ['Eb:7', 'Eb:7', 'Ab:7'], ['Db:dim7', 'Db:maj6', 'Db:maj6']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(45.01, 49.44)]</t>
+          <t>[['Bb:maj6', 'Bb:maj6', 'G:min7'], ['F:7', 'Bb:maj6', 'G:min7'], ['F:7', 'F:7', 'Bb:maj6'], ['C:7', 'C:7', 'F:7'], ['E:dim7', 'Bb:maj6/5', 'G:min7']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(48.170328, 55.589104)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:12.650000', '0:00:14.400000'), ('0:00:43.230000', '0:00:46.700000'), ('0:00:16.100000', '0:00:16.970000'), ('0:00:10.330000', '0:00:12.080000'), ('0:00:12.360000', '0:00:13.230000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:01:01', '0:01:02.520000'), ('0:00:08.420000', '0:00:09.970000'), ('0:00:51.550000', '0:00:54.020000'), ('0:00:21.260000', '0:00:24.310000'), ('0:00:06.370000', '0:00:07.900000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_208</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2371794871794872</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E', 'B', 'E', 'B']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['Eb:maj', 'Bb:maj', 'Eb:maj', 'Bb:maj']]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(148.857891, 156.114126)]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(217.911, 223.713)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:03.220000', '0:00:18.300000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:01:08.340000', '0:01:20')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_109</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5576923076923077</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>isophonics_65</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_211</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3653846153846154</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A/3', 'D', 'A']]</t>
+          <t>[['C#', 'F#:min/5', 'D']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(94.925, 100.821)]</t>
+          <t>[['A:maj', 'D:min', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(4.25, 9.179)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:01:19.910000', '0:01:26.123000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:05.360000', '0:00:09.200000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_39</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1940639269406393</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E/5', 'B', 'B', 'E/5']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab', 'Ab', 'Db']]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(61.620521, 70.444104)]</t>
+          <t>[['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(126.19, 129.59)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:04.340000', '0:00:17.660000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:59.600000', '0:01:10.340000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_273</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1031468531468532</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A/3', 'E/5', 'A/3']]</t>
-        </is>
+          <t>schubert-winterreise_135</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_39</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(14.168, 18.573)]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(20.801, 27.165)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:13.600000', '0:00:44.080000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:12.440000', '0:00:38.460000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7083333333333333</v>
-      </c>
-      <c r="D11" t="inlineStr">
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>[(33.0, 48.22)]</t>
-        </is>
-      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(14.44, 41.8)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+          <t>[('0:01:41.060000', '0:01:42.380000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2767857142857143</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:maj', 'F#:7', 'B:maj'], ['F#:7', 'B:maj', 'B:min']]</t>
-        </is>
+          <t>isophonics_114</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4318181818181818</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['D:7', 'G:maj', 'G:min']]</t>
+          <t>[['E', 'A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(0.32, 9.54), (30.52, 40.64)]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(65.44, 66.82), (66.04, 69.18)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:06.726778', '0:00:14.737663')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:57.480000', '0:01:08.700000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2528735632183908</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_206</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7/F', 'F:min', 'C:maj/F', 'F:min']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(11.74, 19.74)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(18.82, 46.24)]</t>
+          <t>[('0:00:53.160000', '0:00:55.820000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:22.600000', '0:00:25.720000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.09642857142857142</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A#/F', 'F:7', 'A#']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_42</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(271.22, 275.78)]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(79.98, 87.7)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:53.160000', '0:00:55.820000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:20.540000', '0:00:23.160000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2932330827067669</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C', 'F', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(10.634761, 15.986961)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(62.2, 64.4)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:02:01.740000', '0:02:08.480000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:01:59.320000', '0:02:04.320000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E'], ['C:maj', 'A:min/E', 'E:7', 'A:min'], ['A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:7', 'C:min', 'C:min'], ['D#/G', 'C:min/G', 'G:7', 'C:min'], ['C:min', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(32.7, 39.58), (30.76, 37.72), (36.02, 45.64)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(25.8, 31.82), (67.16, 72.4), (24.68, 29.46)]</t>
+          <t>[('0:01:24.920000', '0:01:45.440000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_204</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_203</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1045673076923077</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'A']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'D/b7']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(0.459543, 6.438299)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(55.397573, 60.285374)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:01:23.420000', '0:01:45.160000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
